--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Obsidian-Library\业务思考\python-i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8FDC49-4C24-458E-BF9B-5C910A6BE0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BA84EC-2754-4B8D-AD97-D50D31FCB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>key</t>
   </si>
@@ -87,6 +87,26 @@
   </si>
   <si>
     <t>app_exit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>app名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块_功能</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,90 +484,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.75" style="3" customWidth="1"/>
-    <col min="2" max="4" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="36.75" style="3" customWidth="1"/>
+    <col min="3" max="5" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>